--- a/resources/static/assets/uploads/2201Courses.xlsx
+++ b/resources/static/assets/uploads/2201Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhaber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F71351-4DB6-4F8F-8073-31835A0EC971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E192F-0536-4826-8446-1EF43226118D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3405" yWindow="885" windowWidth="21660" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,10 +505,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +801,7 @@
     <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,10 +871,10 @@
       <c r="I2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -908,10 +909,10 @@
       <c r="I3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>0.63541666666666663</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -946,10 +947,10 @@
       <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -984,10 +985,10 @@
       <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1022,10 +1023,10 @@
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1060,10 +1061,10 @@
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.63888888888888884</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1098,10 +1099,10 @@
       <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1136,10 +1137,10 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1174,10 +1175,10 @@
       <c r="I10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0.44791666666666669</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1212,10 +1213,10 @@
       <c r="I11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.46875</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.50347222222222221</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1250,10 +1251,10 @@
       <c r="I12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0.69791666666666663</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1288,10 +1289,10 @@
       <c r="I13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>0.69791666666666663</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1390,10 +1391,10 @@
       <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>0.54861111111111116</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1428,10 +1429,10 @@
       <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>0.59375</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -1466,10 +1467,10 @@
       <c r="I18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>0.56597222222222221</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -1504,10 +1505,10 @@
       <c r="I19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>0.65625</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -1542,10 +1543,10 @@
       <c r="I20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1580,10 +1581,10 @@
       <c r="I21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>0.44791666666666669</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -1682,10 +1683,10 @@
       <c r="I24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0.75347222222222221</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>0.78819444444444442</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1720,10 +1721,10 @@
       <c r="I25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>0.74305555555555558</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -1758,10 +1759,10 @@
       <c r="I26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>0.76388888888888884</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -1796,10 +1797,10 @@
       <c r="I27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>0.57291666666666663</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -1834,10 +1835,10 @@
       <c r="I28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>0.88541666666666663</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -1936,10 +1937,10 @@
       <c r="I31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -1974,10 +1975,10 @@
       <c r="I32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.4236111111111111</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>0.47569444444444442</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -2012,10 +2013,10 @@
       <c r="I33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>0.57291666666666663</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -2050,10 +2051,10 @@
       <c r="I34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -2088,10 +2089,10 @@
       <c r="I35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>0.4236111111111111</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -2126,10 +2127,10 @@
       <c r="I36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>0.46875</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>0.50347222222222221</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -2164,10 +2165,10 @@
       <c r="I37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>0.44791666666666669</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -2202,10 +2203,10 @@
       <c r="I38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>0.59375</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -2240,10 +2241,10 @@
       <c r="I39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>0.57291666666666663</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -2278,10 +2279,10 @@
       <c r="I40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -2316,10 +2317,10 @@
       <c r="I41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>0.64930555555555558</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>0.70138888888888884</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -2354,10 +2355,10 @@
       <c r="I42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>0.82291666666666663</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -2392,10 +2393,10 @@
       <c r="I43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>0.69791666666666663</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -2430,10 +2431,10 @@
       <c r="I44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>0.79861111111111116</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>0.85069444444444442</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -2564,10 +2565,10 @@
       <c r="I48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -2602,10 +2603,10 @@
       <c r="I49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>0.74305555555555558</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -2640,10 +2641,10 @@
       <c r="I50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -2678,10 +2679,10 @@
       <c r="I51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>0.56597222222222221</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -2716,10 +2717,10 @@
       <c r="I52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>0.54861111111111116</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -2754,10 +2755,10 @@
       <c r="I53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>0.59375</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -2792,10 +2793,10 @@
       <c r="I54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>0.57291666666666663</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -2830,10 +2831,10 @@
       <c r="I55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>0.63541666666666663</v>
       </c>
       <c r="L55" s="2" t="s">
@@ -2868,10 +2869,10 @@
       <c r="I56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>0.51041666666666663</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -2906,10 +2907,10 @@
       <c r="I57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>0.82291666666666663</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -2944,10 +2945,10 @@
       <c r="I58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>0.44791666666666669</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -2982,10 +2983,10 @@
       <c r="I59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>0.38541666666666669</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -3052,10 +3053,10 @@
       <c r="I61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>0.59375</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -3090,10 +3091,10 @@
       <c r="I62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>0.38541666666666669</v>
       </c>
       <c r="L62" s="2" t="s">
@@ -3128,10 +3129,10 @@
       <c r="I63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>0.63888888888888884</v>
       </c>
       <c r="L63" s="2" t="s">
@@ -3166,10 +3167,10 @@
       <c r="I64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>0.63541666666666663</v>
       </c>
       <c r="L64" s="2" t="s">
